--- a/3 семестр (Электричество и магнетизм)/335/Книга1.xlsx
+++ b/3 семестр (Электричество и магнетизм)/335/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/3 семестр (Электричество и магнетизм)/335/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B07492-7186-2440-A078-FC78ED4E47A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A39471-D48E-244E-9929-87D35F5CF82F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{CE77DEEC-8688-0F4D-888D-F7ED546C5BFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{CE77DEEC-8688-0F4D-888D-F7ED546C5BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>I, A</t>
   </si>
@@ -67,6 +69,24 @@
   </si>
   <si>
     <t>dE</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>Цинк</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Медь</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -646,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF48ACB0-B82B-5446-9ABF-96520C7EB764}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,6 +875,318 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5239919-03AB-B744-AAF9-F3DBBD81D298}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>293.39999999999998</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.63</v>
+      </c>
+      <c r="B4">
+        <v>459.5</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>633</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.9</v>
+      </c>
+      <c r="B6">
+        <v>722.3</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.01</v>
+      </c>
+      <c r="B7">
+        <v>778.2</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.01</v>
+      </c>
+      <c r="B8">
+        <v>778</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A51CE1-967C-ED49-A0A7-E8751FFFEE19}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>178.87190000000001</v>
+      </c>
+      <c r="B2">
+        <f>A2*0.08</f>
+        <v>14.309752000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>267.64380000000006</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">A3*0.08</f>
+        <v>21.411504000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>356.41570000000002</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>28.513256000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>445.18760000000009</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>35.61500800000001</v>
+      </c>
+      <c r="C5">
+        <v>0.42</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>533.95950000000005</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>42.716760000000008</v>
+      </c>
+      <c r="C6">
+        <v>0.51</v>
+      </c>
+      <c r="D6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>640.48578000000009</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>51.238862400000009</v>
+      </c>
+      <c r="C7">
+        <v>0.63</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>711.50329999999997</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>56.920263999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.69</v>
+      </c>
+      <c r="D8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>800.27520000000015</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>64.022016000000008</v>
+      </c>
+      <c r="C9">
+        <v>0.78</v>
+      </c>
+      <c r="D9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>897.92429000000004</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>71.833943200000007</v>
+      </c>
+      <c r="C10">
+        <v>0.84</v>
+      </c>
+      <c r="D10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>977.81900000000007</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>78.225520000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.87</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1066.5909000000001</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>85.327272000000008</v>
+      </c>
+      <c r="C12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1190.87156</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>95.269724800000006</v>
+      </c>
+      <c r="C13">
+        <v>0.96</v>
+      </c>
+      <c r="D13">
         <v>0.06</v>
       </c>
     </row>
@@ -952,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF400F8B-BF41-2142-B07A-BD0248B09B77}">
-  <dimension ref="B2:AB90"/>
+  <dimension ref="B2:AB113"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G18"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,12 +2469,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>-13</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0.8</v>
       </c>
@@ -2176,7 +2508,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>0.2</v>
       </c>
@@ -2203,8 +2535,14 @@
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="W36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>0.3</v>
       </c>
@@ -2231,8 +2569,17 @@
         <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>13</v>
+      </c>
+      <c r="X37">
+        <v>1.5</v>
+      </c>
+      <c r="Y37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>0.4</v>
       </c>
@@ -2259,8 +2606,11 @@
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>0.5</v>
       </c>
@@ -2288,7 +2638,7 @@
         <v>0.32999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>0.61</v>
       </c>
@@ -2316,7 +2666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>0.7</v>
       </c>
@@ -2344,7 +2694,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>0.8</v>
       </c>
@@ -2372,7 +2722,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>0.9</v>
       </c>
@@ -2400,7 +2750,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1.01</v>
       </c>
@@ -2428,7 +2778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>1.1000000000000001</v>
       </c>
@@ -2456,7 +2806,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>1.25</v>
       </c>
@@ -3209,7 +3559,7 @@
         <v>1.01</v>
       </c>
       <c r="N79">
-        <f t="shared" si="17"/>
+        <f>887.719*C79+90.1</f>
         <v>178.87190000000001</v>
       </c>
       <c r="O79">
@@ -3269,7 +3619,7 @@
         <v>356.41570000000002</v>
       </c>
       <c r="O81">
-        <f t="shared" si="18"/>
+        <f>F81</f>
         <v>0.24</v>
       </c>
     </row>
@@ -3523,6 +3873,397 @@
       <c r="O90">
         <f t="shared" si="18"/>
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0.1</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <f>D102-$D$101</f>
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <f>0.03*E102</f>
+        <v>0.12</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:G113" si="22">0.03*2</f>
+        <v>0.06</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <f>887.719*C102+90.1</f>
+        <v>178.87190000000001</v>
+      </c>
+      <c r="O102">
+        <v>0.12</v>
+      </c>
+      <c r="P102">
+        <f t="shared" ref="P102:P113" si="23">0.03*2</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>0.2</v>
+      </c>
+      <c r="D103">
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:E113" si="24">D103-$D$101</f>
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ref="F103:F113" si="25">0.03*E103</f>
+        <v>0.21</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N103">
+        <f t="shared" ref="N103:N113" si="26">887.719*C103+90.1</f>
+        <v>267.64380000000006</v>
+      </c>
+      <c r="O103">
+        <v>0.21</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>0.3</v>
+      </c>
+      <c r="D104">
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="26"/>
+        <v>356.41570000000002</v>
+      </c>
+      <c r="O104">
+        <v>0.3</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>0.4</v>
+      </c>
+      <c r="D105">
+        <v>28</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="25"/>
+        <v>0.42</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="26"/>
+        <v>445.18760000000009</v>
+      </c>
+      <c r="O105">
+        <v>0.42</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+      <c r="D106">
+        <v>31</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="25"/>
+        <v>0.51</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="26"/>
+        <v>533.95950000000005</v>
+      </c>
+      <c r="O106">
+        <v>0.51</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>0.62</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="25"/>
+        <v>0.63</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="26"/>
+        <v>640.48578000000009</v>
+      </c>
+      <c r="O107">
+        <v>0.63</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>0.7</v>
+      </c>
+      <c r="D108">
+        <v>37</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="25"/>
+        <v>0.69</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="26"/>
+        <v>711.50329999999997</v>
+      </c>
+      <c r="O108">
+        <v>0.69</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>0.8</v>
+      </c>
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="25"/>
+        <v>0.78</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="26"/>
+        <v>800.27520000000015</v>
+      </c>
+      <c r="O109">
+        <v>0.78</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>0.91</v>
+      </c>
+      <c r="D110">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="25"/>
+        <v>0.84</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="26"/>
+        <v>897.92429000000004</v>
+      </c>
+      <c r="O110">
+        <v>0.84</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>43</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="25"/>
+        <v>0.87</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="26"/>
+        <v>977.81900000000007</v>
+      </c>
+      <c r="O111">
+        <v>0.87</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D112">
+        <v>44</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="25"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="26"/>
+        <v>1066.5909000000001</v>
+      </c>
+      <c r="O112">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>1.24</v>
+      </c>
+      <c r="D113">
+        <v>46</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="25"/>
+        <v>0.96</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="22"/>
+        <v>0.06</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="26"/>
+        <v>1190.87156</v>
+      </c>
+      <c r="O113">
+        <v>0.96</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="23"/>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +4276,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3639,7 +4380,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3796,7 +4537,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3985,7 +4726,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4206,7 +4947,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4427,7 +5168,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
